--- a/CW2/#Results/Sequentials/#Comparison.xlsx
+++ b/CW2/#Results/Sequentials/#Comparison.xlsx
@@ -53,9 +53,6 @@
     <t>but Sundaram is the best performer in the lab</t>
   </si>
   <si>
-    <t>Technique1:</t>
-  </si>
-  <si>
     <t xml:space="preserve">On average, </t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Technique4:</t>
+  </si>
+  <si>
+    <t>Parallel For</t>
   </si>
 </sst>
 </file>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,16 +475,16 @@
       <c r="E1" s="8"/>
       <c r="H1" s="8"/>
       <c r="K1" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -1463,25 +1463,25 @@
       <c r="E29" s="9"/>
       <c r="H29" s="9"/>
       <c r="J29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K29" s="9"/>
       <c r="N29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="S29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T29" s="9"/>
       <c r="W29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AB29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC29" s="9"/>
       <c r="AF29" s="9"/>
       <c r="AI29" s="9"/>
       <c r="AK29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" s="9"/>
       <c r="AO29" s="9"/>
